--- a/rotary_encoder/encoder data.xlsx
+++ b/rotary_encoder/encoder data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\EJC\Multimodal_Intervention_Robot\rotary_encoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7592CB-B731-43C6-933E-F42078111E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B0BAE-D404-46DC-8B9C-F0A83CDDF9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C164633B-540A-4B7A-98CC-2FA320AB818D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{C164633B-540A-4B7A-98CC-2FA320AB818D}"/>
   </bookViews>
   <sheets>
     <sheet name="steps_per_deg" sheetId="1" r:id="rId1"/>
+    <sheet name="offset" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="10">
   <si>
     <t>diameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,10 @@
   </si>
   <si>
     <t>ccw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocdaaaaaaaaaaaaaaaaddddddddddddddddddddddddddddddddddddddroc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB2F22-78B9-4BF2-9950-51FD9B1EAA25}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2179,6 +2184,9 @@
       <c r="E86" t="s">
         <v>7</v>
       </c>
+      <c r="F86">
+        <v>11.67</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -2196,6 +2204,9 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
+      <c r="F87">
+        <v>12.78</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2213,6 +2224,9 @@
       <c r="E88" t="s">
         <v>7</v>
       </c>
+      <c r="F88">
+        <v>11.51</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2230,6 +2244,9 @@
       <c r="E89" t="s">
         <v>7</v>
       </c>
+      <c r="F89">
+        <v>73.08</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -2247,6 +2264,9 @@
       <c r="E90" t="s">
         <v>7</v>
       </c>
+      <c r="F90">
+        <v>73.42</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -2264,6 +2284,9 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
+      <c r="F91">
+        <v>74.260000000000005</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -2281,6 +2304,9 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
+      <c r="F92">
+        <v>151.46</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -2298,6 +2324,9 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
+      <c r="F93">
+        <v>152.72999999999999</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -2315,6 +2344,9 @@
       <c r="E94" t="s">
         <v>7</v>
       </c>
+      <c r="F94">
+        <v>151.38</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2332,6 +2364,9 @@
       <c r="E95" t="s">
         <v>7</v>
       </c>
+      <c r="F95">
+        <v>305.27999999999997</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -2349,8 +2384,11 @@
       <c r="E96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>304.33999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2366,8 +2404,11 @@
       <c r="E97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>304.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2383,8 +2424,11 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2400,8 +2444,14 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>11.69</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2417,8 +2467,11 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2434,8 +2487,11 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2451,8 +2507,11 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>73.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2468,8 +2527,11 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>73.91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2485,8 +2547,11 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>151.33000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2502,8 +2567,11 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>150.66999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2519,8 +2587,11 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>151.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -2536,8 +2607,11 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>305.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2553,8 +2627,11 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>305.45999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2570,10 +2647,13 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>306.35000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2587,8 +2667,11 @@
       <c r="E110" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2604,8 +2687,11 @@
       <c r="E111" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2621,8 +2707,11 @@
       <c r="E112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2638,8 +2727,11 @@
       <c r="E113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2655,8 +2747,11 @@
       <c r="E114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2672,8 +2767,11 @@
       <c r="E115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>29.03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2689,8 +2787,11 @@
       <c r="E116" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>61.01</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2706,8 +2807,11 @@
       <c r="E117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>60.68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2723,8 +2827,11 @@
       <c r="E118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>59.77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2740,8 +2847,11 @@
       <c r="E119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>120.51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2757,8 +2867,11 @@
       <c r="E120" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>120.47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2774,8 +2887,11 @@
       <c r="E121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>121.56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2791,8 +2907,11 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -2808,8 +2927,11 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2825,8 +2947,11 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>29.08</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -2859,8 +2987,11 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2876,8 +3007,11 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -2893,8 +3027,11 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -2910,8 +3047,11 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -2927,8 +3067,11 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -2944,8 +3087,11 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>120.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -2961,8 +3107,11 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>120.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -2978,8 +3127,11 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>120.96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -2995,8 +3147,11 @@
       <c r="E134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -3012,8 +3167,11 @@
       <c r="E135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -3029,8 +3187,11 @@
       <c r="E136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -3046,8 +3207,11 @@
       <c r="E137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -3063,8 +3227,11 @@
       <c r="E138" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>37.659999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -3080,8 +3247,11 @@
       <c r="E139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3097,8 +3267,11 @@
       <c r="E140" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>76.930000000000007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -3114,8 +3287,11 @@
       <c r="E141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -3131,8 +3307,11 @@
       <c r="E142" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>76.86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -3148,8 +3327,11 @@
       <c r="E143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>155.22999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -3165,8 +3347,11 @@
       <c r="E144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>155.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -3182,8 +3367,11 @@
       <c r="E145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>155.24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -3199,8 +3387,11 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -3216,8 +3407,11 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -3233,8 +3427,11 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3250,8 +3447,11 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -3267,8 +3467,11 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4</v>
       </c>
@@ -3284,8 +3487,11 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -3301,8 +3507,11 @@
       <c r="E152" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>76.33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -3318,8 +3527,11 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>76.48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -3335,8 +3547,11 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -3352,8 +3567,11 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>155.07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -3369,8 +3587,11 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>154.84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -3386,8 +3607,11 @@
       <c r="E157" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>155.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3404,7 +3628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3421,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3799,4 +4023,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1BA7F1-224A-427A-8D63-48CCB2C9A654}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>